--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_tiger_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_tiger_1_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="784">
   <si>
     <t>zh_CN</t>
   </si>
@@ -808,6 +808,786 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">a.m. 8:27 天気/晴天
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ロドス本艦 訓練場
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジャッキー"]  準備はいいかな？　それじゃあ、行っくよー！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  ざけんなぁ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  手ぇ出す時に声掛けるバカがいるか！？　あぁ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジャッキー"]  くっ……なら、こいつを食らえ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  ちっ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  枕よりも柔らけぇ拳だなぁ、おい。二日凍らせた黒パンのほうがまだ硬ぇぞ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジャッキー"]  ぐっ……スピードはぼくの方が上のはず……！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジャッキー"]  なのに……どうして当たらないの！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  無駄だ無駄！　お前のやることは全部無駄だ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  ったく……誰だよ、お前にケンカを教えたバカは？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジャッキー"]  近接戦闘なら……父さんに……あのね、父さんはすごい警察官なんだよ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  はぁ？　口を開けばすぐ父さん、父さんって……ガキかよお前は。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジャッキー"]  はっ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジャッキー"]  隙あり！　へへっ、よそ見してると危ないよ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  おっ、今のはなかなかサマになってたじゃねぇか！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  だが、こいつはどうだぁ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジャッキー"]  （そんな！　よ、避けられない……！）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジャッキー"]  まさか……あんな角度から拳が来るなんて……！　それ、なんて拳法なの？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  はぁ？　拳法？　んなもん、ケンカで使うわけねーだろ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  っつぅかよ。べらべら喋ってる暇があんなら、少しは実力を見せてみろや！　こちとらまだまだ暴れ足りねぇんだ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジャッキー"]  くっ……ますます速くなってる――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  おせーなぁ！　遅すぎるぜ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  オラァッ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジャッキー"]  （っぶなー……もうちょっとで目に当たるとこだった……！）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジャッキー"]  ふぅ……ふぅ……はぁ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジャッキー"]  （どうしよう、反撃する暇がない……しかもお腹にもろ食らったし……）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  つまんねー……マジでつまんねーなあ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  ……お前、まさかこの俺を下に見ちゃいねーよな？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  俺はマジで殴りかかってんだぞ？　なのに、いちいちもたついた動きなんかしやがって……マシなのは構えだけかよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  いいかガキ、よく聞け。さっきの拳はな、俺の鼻を狙うべきだったんだ。わかるか？　ここだ！　ここをガツンと一発食らわせれば鼻血がぶわっと出るぞ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジャッキー"]  はぁ、はぁ……ぼく……は……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジャッキー"]  敵の血しか……流させるつもりは……ないよ……そう、父さんに……教えられたから……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  あー、うっぜぇな！　くだんねぇ御託ばっか並べてんじゃねーよ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  これはケンカだぞ？　なのに、あれこれ考えてどうすんだ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジャッキー"]  ……ぐぅっ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  はんっ……殴り甲斐だけはあるよなあ、お前。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  こんだけ殴られりゃ、普通ビービー泣きながら許しを乞うはずなんだが……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジャッキー"]  ぼくは……そんなこと……しない……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジャッキー"]  確かにきみは……強いよ。でも……ぼくを甘く見てもらっちゃ……困る。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  なんだ、少しはおもしれーことが言えんじゃねーか。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  そんじゃあ、その逃げ出さねぇ根性に免じて……今、楽にしてやるよ――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ドーベルマン"]  そこまでだ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  なっ……俺の拳を止めただと？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  こいつは……鞭か？　へぇ……お前、なかなかやるじゃねーか。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジャッキー"]  ドーベルマン先生……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ドーベルマン"]  ジャッキー、お前は下がってLancet-2の処置を受けろ。そしてそれが済んだら、医務室へ向かえ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジャッキー"]  でも、訓練が……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ドーベルマン"]  午前の訓練は欠席を許可する。ただし、今回は特例措置だ。次はないと思え。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ドーベルマン"]  それともう一つ。ロドスにおいても、訓練場は戦場そのもの。訓練の際は目の前の相手を敵と思え。敵前では、お前の優しさは弱点にしかならん。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ドーベルマン"]  次も全力が出せんようなら、訓練を追加する。私からは以上だ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジャッキー"]  ……！　はいっ、先生！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジャッキー"]  それとインドラさん！　今日はぼくの訓練に付き合ってくれてありがとう！　次はもっとカッコイイとこ見せてあげるから！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  ……ちっ、興醒めもいいとこだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ドーベルマン"]  待て。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  あぁ？　お前も俺とやり合いたいってのか？　いいぜ、お前となら少しは楽しめそうだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ドーベルマン"]  生憎、ままごとに付き合うつもりはない。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  ままごと……？　お前、今ケンカをままごとって言ったか？　なんか勘違いしているみてーだが……俺がどう生きてきたのかを知ってて、んな口をきいてんのか？　ああ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ドーベルマン"]  ……オペレーター・インドラ。お前の言動は、私からすれば幼稚が過ぎる。まるで赤子だ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ドーベルマン"]  それにお前は既に生徒ではない。ゆえに、私が指導してやる必要もないのだが……少しだけ注意しといてやろう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ドーベルマン"]  まず、一つ目――真っ当な心構えができるまでは、二度と訓練場に足を踏み入れるな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  はぁ？　なんでだよ？　喧嘩がしたけりゃここへ行けって、あのウサギから聞いてきたってのに。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ドーベルマン"]  お前の発言に含まれた誤りを全て訂正してやれるほど、私も暇ではない。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ドーベルマン"]  ……二つ目だ。訓練場はストレスを発散させる場所ではないし、オペレーター間の手合わせも相手に後遺症を与えることを目的としていない。覚えておけ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ドーベルマン"]  ……だが心構えができたら、また訓練場へ来ても構わん。新人たちへの実践指導には、お前の戦闘経験が役に立つだろうからな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ドーベルマン"]  しかし、今はその時ではない。直ちに出て行け。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  はんっ、ここには口だけの奴しかいねーのか。ったく……どいつもこいつも面白みってもんがねーな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  毎日ここに閉じこもってばっかで、喧嘩もろくにできねぇなんて……ほんっと最悪だぜ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  出てくる料理も趣味が悪ぃしよ……俺ぁ肉とジャガイモがありゃ十分だってのに、あれこれ弄っては調味料なんざ加えやがって……噛んでるうちに飽き飽きしちまうぜ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  そして、極めつけはこの部屋だ！　冷たい鉄板で狭っ苦しいスペースを囲んだだけじゃねぇか！　これが人の住む場所か！？　牢獄の間違いだろ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  だああ～～～～っ！！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  （ドカン――）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="？？？"]  あははっ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  ……あ？　誰だ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="？？？"]  ほらほら、頑張れ～。あとちょっとでその壁にも穴があくかもしれないよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  はっ、よりにもよって一番つまんねーやつのお出ましか。おいモーガン、そんなとこ突っ立ってないで入ってこいよ。お前を一発ブン殴れば、ちっとはストレス発散になりそうだぜ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="モーガン"]  そう言われて入るバカはいないでしょ。まっ、拳は当たらずとも、次に壁を殴ったら巻き込まれるくらいの可能性はあるかもだけど。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="モーガン"]  それにさ、あんたと違ってこっちは忙しいんだよね。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  ちっ、お前の用事なんざ知ったことかよ。どうせ昔と同じで、そこらを走り回ってるだけだろうが……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="モーガン"]  やだなあ、拗ねてるの～？　どんなに忙しくっても、吾輩は可愛いハンナちゃんを忘れたりなんかしないって～。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="モーガン"]  それより聞いたよ～？　訓練場で大暴れして、追い出されちゃったんだって？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  ……からかいに来ただけだろ、お前。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="モーガン"]  酷いなぁ～。そう言われたら悲しくなっちゃうじゃないか～。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="モーガン"]  まっ、どうせ心配で様子を見に来たと言っても信じてくれないだろうし……ここはヴィーナの代わりにあんたが騒ぎを起こしてないか確認しに来た、ってことにしておこうかな～。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  まさか……訓練場の件を王が知ってるってのか！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="モーガン"]  そんな神経質になんないでよ～。言っておくけど、吾輩は告げ口なんてしてないからねぇ～。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="モーガン"]  でもね～、人様の船に乗ってる以上、あんたのやったことが彼女の耳に入らないとでも思う？　彼女を誰だと思ってんの～？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  ちっ、悪かったよ！　俺が悪かった、それでいいんだろ！　……今すぐ王に会いに行かねぇと。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="モーガン"]  まぁまぁ、そう慌てなさんな。ここまで長居させてもらってるんだもの。なら、ロドスの人たちの性格くらいよく知ってるでしょ？　それにヴィーナもよくしてもらってるから、へーきへーき。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  ……そうだな。それは認める。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  たしかにここの連中は悪人じゃない。今まで見てきたような……性根が腐ってる連中とも、弱すぎる連中とも違う。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  けどな、だからと言って俺がここの生活を気に入らなきゃなんねぇ理由にはなんねぇだろ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="モーガン"]  ん～？　口ではそんなことを言ってるけど、本当はただ慣れてないだけじゃないの～？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  ……ッ！　……ああそうだよ！　こんなん慣れるわけねぇだろ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  毎日隠れて逃げ回って、寝床が見つからねぇまんま何日も過ごして……それでやっと寝床にありつけても、近づく敵を警戒しなくちゃならねー生活……そんな掃き溜めから突然抜け出したんだぞ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="モーガン"]  今思えば、ちょっと懐かしい気もするよねぇ～。あの頃のあんたってば、寝てると思ってもちょっとした音ですぐ目をかっ開いて、何もないとこに拳を振るってたし。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  ……こっそり近づいてきたのはどこのどいつだよ。言っとくが、お前の目に痣を作らないでやったのは俺の優しさだからな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="モーガン"]  あはははははっ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  今はいつでも寝床を得られるどころか、あったけぇ食い物にまでありつけるようになった。しかも食ってる最中、向かいのやつが突然武器を構えて襲いかかってくる心配もねーしな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  ……ロンディニウムを離れてから、こんな暮らしを送ったことなんざ一度もねぇよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  それによ……もう丸14日も血を見てねぇ。モーガン、こんな生活どう慣れろって言うんだ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="モーガン"]  ほ～らね。あんたが言ったことは全部、ヴィーナが吾輩たちをロドスに連れてきてくれたことの正しさを証明してるじゃないか～。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="モーガン"]  吾輩たちが必要としているものを、ロドスは全部提供してくれる。それは寝床や食べ物に限ったことじゃない……あんたはいつも吾輩の言葉に無関心だったけど、本当は分かってるんだろう？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  ……クソッ、わーってるよ。誰が敵かなんざ知らなくても、何と戦うべきかが分かりゃあそれでいい。誰が本当の味方で、王の助けになれるのかってことくらい、俺にだって見分けられる。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  だが、王についてきた理由まで忘れたわけじゃねぇぞ。王が剣を抜く姿を見る……そのためなら、俺はなんだってするつもりだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  けどな、モーガン……何故か知らねぇが、最近俺の夢に残してったガキどもがよく出てくるんだ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="モーガン"]  ふむふむ。それは、あの子らのことが心配だからじゃないのかい？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  俺がんなことするような奴に見えるか……？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="モーガン"]  それ、本気で言ってる～？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  ……知るかよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  俺が知るわけねぇだろ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  あいつらがどう過ごしてるのか、怪我でもしてねーか、病気になってねーか、それに……ちょっかい出してくるやつがいねーか……特に、あの連中が！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  ……まぁ、心当たりがあるとすりゃ……柔らけぇベッドに寝転がるたびに、あいつらは今頃どうしてんのかって考えちまってるからだろうな……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="モーガン"]  あんたは、誰よりもあの子たちのことを分かってるよ。長い間、一緒に過ごしてきたんだもの。もはや吾輩たちはお互い、自分の体の一部のように分かり合ってると言っても過言じゃないさ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="モーガン"]  忘れたわけじゃないだろう？　小さい頃からロンディニウムで過ごしてきた吾輩たちは、果てのない争いの中で生き延びる術を誰よりよ～く知ってるってことをさ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  ……ああ。だからこそ……俺は、あいつらを信じてる。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  ――あいつらが俺を信じているのと同じように、な。モーガン、お前だって覚えてるだろ？　あいつらは、どいつもこいつもチビの頃から俺たちの後についてきたことをよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="モーガン"]  ははっ、もちろんさ。懐かしいねぇ～。まっ、あの頃はあんたも吾輩の後ろにいたけど。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  おい、話を逸らすな。仮に俺がお前の後ろにいたとしても、それはお前の足が速いせいだからな。言っておくが、俺はいつでもお前の尻を蹴飛ばしてやれたんだぞ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  とにかく、だ。あの頃……俺たちは誓い合っただろ。いい暮らしなんざできなくてもいい。たとえどんな暮らしになるとしても、皆で一緒に生きていこう、ってよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  なのに今は……今は……はぁ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="モーガン"]  そんなにくよくよするもんじゃないよ～。まさか今更になって後悔してるのかい？　ヴィーナとここまで来たこと。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シージ"]  インドラ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  ……何だ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シージ"]  作戦内容は以上だ。頭に叩き込んだか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  大体はわかった。けど、最後のほうは……なあ、ヴィーナ。事が済んだら俺はどこに行けばいいんだ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シージ"]  それは、貴様自身に選ばせたいと思っている。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シージ"]  この位置に来て、私と合流するもよし……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シージ"]  またはその位置へ行き、貴様を待つ彼女たちと合流するもよし。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シージ"]  その場合、彼女たちを連れて速やかに移動し、貴様らの為すべきことを為せばいい。だが、二度とここへは戻るな。私を探す必要もない。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  ヴィーナ……それって……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シージ"]  ……ああ、去るべき時が来た。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  外の奴らか！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シージ"]  暗雲が近付いている。貴様も気付いているはずだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  ちっ、鼻水みてぇにしつけぇ連中め！　一人で来ようが大勢で来ようが、俺が蹴散らしてやる！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シージ"]  既に縄張り争いの範疇を超えているのが実情だ。怪我人も増え続けていることだしな。局面はじきに、我々の力では制御できない事態へと発展するだろう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シージ"]  だが、我々もただ黙って敗北を喫するわけにはいかない……そうなる前に、主導権をこの手に握っておかなければ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  そうか。そういや、モーガンのやつも同じことを言ってたな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  だが――俺はあいつとは違う。あれこれごちゃごちゃ考えるのは好きじゃねぇ。だからよ、これだけ教えてくれ……「その日」が来たんだな？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シージ"]  ああ……今日が「その日」だ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シージ"]  私がここに残れば、貴様ら全員が危険に晒されるだろう。臆病者の誹りを受けるのは忌々しいが、それ以上に無用な犠牲が出ることを私は忌み嫌っている。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シージ"]  それに、争いが止むことはない……ロンディニウムにおいても、この大地においてもそれは同じことだ。我々が為すべきことはまだ無数に残っている。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  だったら、俺はヴィーナについていく！　お前がいる場所が、俺のいるべき場所なんだ。俺の拳が必要になる限り、俺はお前の傍を離れない！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シージ"]  インドラ。貴様は私が最も信頼している友人だ。私は貴様と共に戦う日々を心から享受してきた。だが……どうかわかってほしい。私は貴様についてこいと言っているわけではないのだ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シージ"]  私自身、いつここに戻ってこられるかも分からない。もし私についてくるとなれば同じ境遇に置かれることになるだろう……そうなれば、日々転々とする生活を送ることだって有り得る……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シージ"]  待ち構える困難の数々は、私が口にせずとも想像はつくはずだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="シージ"]  それに……私はまず、貴様に聞くと決めていた。私がグラスゴーに入るまで、彼女たちのリーダーは貴様だったのだからな。故に貴様は、彼女たちのために残る可能性が高いと私は見ている。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  ……言ったはずだ。んなこと、考える必要はねぇってな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  ヴィーナを主と認めたあの日から、俺はこの先どう生きるのか決めたんだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  お前が行く先が、俺の行く先だ。俺の両手はお前の敵を薙ぎ払い、お前の友を抱き寄せるためにある。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  今日ここでヴィーナが俺に残れと言ったなら、俺は何も言わず残っていただろう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  だが、お前は俺に問いかけた――なら、これ以上の問答は不要だ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  俺の答えは……とうに決まっている。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  信じてるぞ、ヴィーナ。お前は俺の――王だ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  後悔なんざ……するわけねぇだろ。それはこの先も変わらねぇ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  王についてきたことは、俺の人生の中で一番正しい選択だったと今でも思ってんだからな！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="モーガン"]  ちょっと、急に大声出さないでよ～。廊下の突き当たりにヴィーナの部屋があるんだよ？　あんたの大声で起きたらどうすんのさ～。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  はんっ、バカ言うんじゃねぇ！　王は昨日も夜遅くまで考え事をしてたんだぞ。今頃ぐっすり眠ってるに決まってる！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="モーガン"]  はいはい。まっ、元気そうで安心したよ。その調子なら、もう話し相手も必要なさそうだねぇ～。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="モーガン"]  そんじゃ、引き続き頑張って壁に穴でもあけてくださいな～。そうすれば、いつでも逃げ出せるもんねぇ～？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="モーガン"]  あははっ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  なっ……俺は……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  くそがっ！　俺の辞書に逃走なんて言葉はねぇ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  ったく……調子狂うな……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  ロドス……俺の王はロドスを選んだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  なら、俺だって一緒だ。けど……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  ……だあああ！　ちくしょうが！　部屋に閉じこもってっと何もかもが気に食わねぇ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  うぜぇったらありゃしねぇぜ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  あ？　誰だ！　モーガンじゃねぇな。あいつはノックなんてしねぇし……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジャッキー"]  ぼ、ぼくだよ。こんにちは、インドラさん。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  ……あぁ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  あんだけボコボコにされたってのに、まだ歩き回れんのか？　大したもんじゃねぇか、ガキ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジャッキー"]  あ、この傷のこと？　あははっ、大丈夫だよ。先生たちが手当てしてくれたからね。それに、父さんと訓練してた時もよく体中痣だらけになってたし。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  そんじゃあ、仕返しにきたわけじゃねーんだな？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジャッキー"]  え、仕返し？　どうして？　確かにインドラさんにはこっぴどくやられたけど……でも、あれはぼくを鍛えてくれてたんでしょ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  ハッ……お前、おもしれーじゃねぇか。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジャッキー"]  へへっ、褒められちゃった。じゃあ、また今度訓練に付き合ってくれる？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  んだよ、まだやられ足りねぇのか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジャッキー"]  さっきね、医務室で考えてたんだ！　インドラさんの拳法――あ、拳法じゃなかった。えっと……そう、喧嘩！　インドラさん、本当に喧嘩が強いんだね！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジャッキー"]  それに、ぼくが今まで教わったことがないものをたくさん持ってると思ったんだ。だから、もっと学びたくて……お願い！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  ……俺から学びてぇ……だと？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  おい、正気か？　さっきあんな目に遭ったばかりだろうが。それでも俺に頼むってのか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジャッキー"]  でも、ボコボコにされちゃったのは、ぼくの実力不足だし。インドラさんのせいじゃないよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  はっ、なんだよ……やっぱここの連中は、外の連中とは違うみてーだな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  あの鞭使いのペッロー……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジャッキー"]  ああ、あの人はドーベルマン先生だよ！　ぼくたちの教官なんだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  あーはいはい、名前なんざどうでもいいっつーの……って、んだよその顔は。わぁった、わぁったよ、ドーベルマンな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  そのドーベルマンが言ってたんだ。心構えができたらまた入れてやる……ってな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  ……なら、試しに行ってみっか。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ジャッキー"]  本当に付き合ってくれるの？　やったぁー！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  はんっ、喜ぶにはまだ早いぜ。言っとくが、俺は手加減しねぇぞ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  しっかし……ふん、手合わせねぇ。要は節度を弁えりゃいいってことだろ？　なら簡単じゃねーか。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="インドラ"]  お前みてーなチビをしごくだけなら、何も難しい事なんざねえぜ！
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">8:27 A.M. \ Clear
 </t>
   </si>
@@ -1760,7 +2540,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="도베르만"]  멈춰!
+    <t xml:space="preserve">[name="도베르만"]  거기까지!
 </t>
   </si>
   <si>
@@ -1864,7 +2644,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="인드라"]  먹는 것도 말이야, 고기에 감자만 있으면 됐지, 지지고 볶고 양념치고 뭐가 그렇게 많아? 매일 그딴 것만 먹으니까 신물이 날 지경이라고!
+    <t xml:space="preserve">[name="인드라"]  먹는 것도 말이야, 고기에 감자만 있으면 됐지, 지지고 볶고 양념 치고 뭐가 그렇게 많아? 매일 그딴 것만 먹으니까 신물이 날 지경이라고!
 </t>
   </si>
   <si>
@@ -1972,7 +2752,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="인드라"]  날마다 숨어 다닐 필요도 없고, 잠잘 곳을 찾아 며칠이나 헤맬 필요도 없어. 자다가 적이 습격해 올까 봐 걱정할 필요도 없고. 이런 생활에 갑자기 익숙해질 리 없잖아.
+    <t xml:space="preserve">[name="인드라"]  날마다 숨어다닐 필요도 없고, 잠잘 곳을 찾아 며칠이나 헤맬 필요도 없어. 자다가 적이 습격해 올까 봐 걱정할 필요도 없고. 이런 생활에 갑자기 익숙해질 리 없잖아.
 </t>
   </si>
   <si>
@@ -2088,7 +2868,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="인드라"]  네.
+    <t xml:space="preserve">[name="인드라"]  어.
 </t>
   </si>
   <si>
@@ -2748,13 +3528,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>199</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>394</v>
       </c>
       <c r="D2" t="s">
-        <v>394</v>
+        <v>589</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2762,13 +3542,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="C3" t="s">
-        <v>200</v>
+        <v>395</v>
       </c>
       <c r="D3" t="s">
-        <v>395</v>
+        <v>590</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2776,13 +3556,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>201</v>
       </c>
       <c r="C4" t="s">
-        <v>201</v>
+        <v>396</v>
       </c>
       <c r="D4" t="s">
-        <v>396</v>
+        <v>591</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2790,13 +3570,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>202</v>
       </c>
       <c r="C5" t="s">
-        <v>202</v>
+        <v>397</v>
       </c>
       <c r="D5" t="s">
-        <v>397</v>
+        <v>592</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2804,13 +3584,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>203</v>
       </c>
       <c r="C6" t="s">
-        <v>203</v>
+        <v>398</v>
       </c>
       <c r="D6" t="s">
-        <v>398</v>
+        <v>593</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2818,13 +3598,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>204</v>
       </c>
       <c r="C7" t="s">
-        <v>204</v>
+        <v>399</v>
       </c>
       <c r="D7" t="s">
-        <v>399</v>
+        <v>594</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2832,13 +3612,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="C8" t="s">
-        <v>205</v>
+        <v>400</v>
       </c>
       <c r="D8" t="s">
-        <v>400</v>
+        <v>595</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2846,13 +3626,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>206</v>
       </c>
       <c r="C9" t="s">
-        <v>206</v>
+        <v>401</v>
       </c>
       <c r="D9" t="s">
-        <v>401</v>
+        <v>596</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2860,13 +3640,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="C10" t="s">
-        <v>207</v>
+        <v>402</v>
       </c>
       <c r="D10" t="s">
-        <v>402</v>
+        <v>597</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2874,13 +3654,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>208</v>
       </c>
       <c r="C11" t="s">
-        <v>208</v>
+        <v>403</v>
       </c>
       <c r="D11" t="s">
-        <v>403</v>
+        <v>598</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2888,13 +3668,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>209</v>
       </c>
       <c r="C12" t="s">
-        <v>209</v>
+        <v>404</v>
       </c>
       <c r="D12" t="s">
-        <v>404</v>
+        <v>599</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2902,13 +3682,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c r="C13" t="s">
-        <v>210</v>
+        <v>405</v>
       </c>
       <c r="D13" t="s">
-        <v>405</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2916,13 +3696,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="C14" t="s">
-        <v>211</v>
+        <v>406</v>
       </c>
       <c r="D14" t="s">
-        <v>406</v>
+        <v>601</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2930,13 +3710,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>212</v>
       </c>
       <c r="C15" t="s">
-        <v>212</v>
+        <v>407</v>
       </c>
       <c r="D15" t="s">
-        <v>407</v>
+        <v>602</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2944,13 +3724,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>213</v>
       </c>
       <c r="C16" t="s">
-        <v>213</v>
+        <v>408</v>
       </c>
       <c r="D16" t="s">
-        <v>408</v>
+        <v>603</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2958,13 +3738,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>214</v>
       </c>
       <c r="C17" t="s">
-        <v>214</v>
+        <v>409</v>
       </c>
       <c r="D17" t="s">
-        <v>409</v>
+        <v>604</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2972,13 +3752,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="C18" t="s">
-        <v>215</v>
+        <v>410</v>
       </c>
       <c r="D18" t="s">
-        <v>410</v>
+        <v>605</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2986,13 +3766,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>216</v>
       </c>
       <c r="C19" t="s">
-        <v>216</v>
+        <v>411</v>
       </c>
       <c r="D19" t="s">
-        <v>411</v>
+        <v>606</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3000,13 +3780,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>217</v>
       </c>
       <c r="C20" t="s">
-        <v>217</v>
+        <v>412</v>
       </c>
       <c r="D20" t="s">
-        <v>412</v>
+        <v>607</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3014,13 +3794,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>218</v>
       </c>
       <c r="C21" t="s">
-        <v>218</v>
+        <v>413</v>
       </c>
       <c r="D21" t="s">
-        <v>413</v>
+        <v>608</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3028,13 +3808,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>219</v>
       </c>
       <c r="C22" t="s">
-        <v>219</v>
+        <v>414</v>
       </c>
       <c r="D22" t="s">
-        <v>414</v>
+        <v>609</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3042,13 +3822,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>220</v>
       </c>
       <c r="C23" t="s">
-        <v>220</v>
+        <v>415</v>
       </c>
       <c r="D23" t="s">
-        <v>415</v>
+        <v>610</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3056,13 +3836,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>221</v>
       </c>
       <c r="C24" t="s">
-        <v>221</v>
+        <v>416</v>
       </c>
       <c r="D24" t="s">
-        <v>416</v>
+        <v>611</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3070,13 +3850,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>222</v>
       </c>
       <c r="C25" t="s">
-        <v>222</v>
+        <v>417</v>
       </c>
       <c r="D25" t="s">
-        <v>417</v>
+        <v>612</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3084,13 +3864,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>223</v>
       </c>
       <c r="C26" t="s">
-        <v>223</v>
+        <v>418</v>
       </c>
       <c r="D26" t="s">
-        <v>418</v>
+        <v>613</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3098,13 +3878,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>224</v>
       </c>
       <c r="C27" t="s">
-        <v>224</v>
+        <v>419</v>
       </c>
       <c r="D27" t="s">
-        <v>419</v>
+        <v>614</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3112,13 +3892,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>225</v>
       </c>
       <c r="C28" t="s">
-        <v>225</v>
+        <v>420</v>
       </c>
       <c r="D28" t="s">
-        <v>420</v>
+        <v>615</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3126,13 +3906,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>226</v>
       </c>
       <c r="C29" t="s">
-        <v>226</v>
+        <v>421</v>
       </c>
       <c r="D29" t="s">
-        <v>421</v>
+        <v>616</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3140,13 +3920,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="C30" t="s">
-        <v>227</v>
+        <v>422</v>
       </c>
       <c r="D30" t="s">
-        <v>422</v>
+        <v>617</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3154,13 +3934,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>228</v>
       </c>
       <c r="C31" t="s">
-        <v>228</v>
+        <v>423</v>
       </c>
       <c r="D31" t="s">
-        <v>423</v>
+        <v>618</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3168,13 +3948,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>229</v>
       </c>
       <c r="C32" t="s">
-        <v>229</v>
+        <v>424</v>
       </c>
       <c r="D32" t="s">
-        <v>424</v>
+        <v>619</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3182,13 +3962,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>230</v>
       </c>
       <c r="C33" t="s">
-        <v>230</v>
+        <v>425</v>
       </c>
       <c r="D33" t="s">
-        <v>425</v>
+        <v>620</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3196,13 +3976,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>231</v>
       </c>
       <c r="C34" t="s">
-        <v>231</v>
+        <v>426</v>
       </c>
       <c r="D34" t="s">
-        <v>426</v>
+        <v>621</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3210,13 +3990,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>232</v>
       </c>
       <c r="C35" t="s">
-        <v>232</v>
+        <v>427</v>
       </c>
       <c r="D35" t="s">
-        <v>427</v>
+        <v>622</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3224,13 +4004,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>233</v>
       </c>
       <c r="C36" t="s">
-        <v>233</v>
+        <v>428</v>
       </c>
       <c r="D36" t="s">
-        <v>428</v>
+        <v>623</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3238,13 +4018,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="C37" t="s">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="D37" t="s">
-        <v>429</v>
+        <v>624</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3252,13 +4032,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="C38" t="s">
-        <v>235</v>
+        <v>430</v>
       </c>
       <c r="D38" t="s">
-        <v>430</v>
+        <v>625</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3266,13 +4046,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>236</v>
       </c>
       <c r="C39" t="s">
-        <v>236</v>
+        <v>431</v>
       </c>
       <c r="D39" t="s">
-        <v>431</v>
+        <v>626</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3280,13 +4060,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>237</v>
       </c>
       <c r="C40" t="s">
-        <v>237</v>
+        <v>432</v>
       </c>
       <c r="D40" t="s">
-        <v>432</v>
+        <v>627</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3294,13 +4074,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>238</v>
       </c>
       <c r="C41" t="s">
-        <v>238</v>
+        <v>433</v>
       </c>
       <c r="D41" t="s">
-        <v>433</v>
+        <v>628</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3308,13 +4088,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>239</v>
       </c>
       <c r="C42" t="s">
-        <v>239</v>
+        <v>434</v>
       </c>
       <c r="D42" t="s">
-        <v>434</v>
+        <v>629</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3322,13 +4102,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="C43" t="s">
-        <v>240</v>
+        <v>435</v>
       </c>
       <c r="D43" t="s">
-        <v>435</v>
+        <v>630</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3336,13 +4116,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>241</v>
       </c>
       <c r="C44" t="s">
-        <v>241</v>
+        <v>436</v>
       </c>
       <c r="D44" t="s">
-        <v>436</v>
+        <v>631</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3350,13 +4130,13 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>242</v>
       </c>
       <c r="C45" t="s">
-        <v>242</v>
+        <v>437</v>
       </c>
       <c r="D45" t="s">
-        <v>437</v>
+        <v>632</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3364,13 +4144,13 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>243</v>
       </c>
       <c r="C46" t="s">
-        <v>243</v>
+        <v>438</v>
       </c>
       <c r="D46" t="s">
-        <v>438</v>
+        <v>633</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3378,13 +4158,13 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>244</v>
       </c>
       <c r="C47" t="s">
-        <v>244</v>
+        <v>439</v>
       </c>
       <c r="D47" t="s">
-        <v>439</v>
+        <v>634</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3392,13 +4172,13 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>245</v>
       </c>
       <c r="C48" t="s">
-        <v>245</v>
+        <v>440</v>
       </c>
       <c r="D48" t="s">
-        <v>440</v>
+        <v>635</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3406,13 +4186,13 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>246</v>
       </c>
       <c r="C49" t="s">
-        <v>246</v>
+        <v>441</v>
       </c>
       <c r="D49" t="s">
-        <v>441</v>
+        <v>636</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3420,13 +4200,13 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>247</v>
       </c>
       <c r="C50" t="s">
-        <v>247</v>
+        <v>442</v>
       </c>
       <c r="D50" t="s">
-        <v>442</v>
+        <v>637</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3434,13 +4214,13 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>248</v>
       </c>
       <c r="C51" t="s">
-        <v>248</v>
+        <v>443</v>
       </c>
       <c r="D51" t="s">
-        <v>443</v>
+        <v>638</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3448,13 +4228,13 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>249</v>
       </c>
       <c r="C52" t="s">
-        <v>249</v>
+        <v>444</v>
       </c>
       <c r="D52" t="s">
-        <v>444</v>
+        <v>639</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3462,13 +4242,13 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="C53" t="s">
-        <v>250</v>
+        <v>445</v>
       </c>
       <c r="D53" t="s">
-        <v>445</v>
+        <v>640</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3476,13 +4256,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>251</v>
       </c>
       <c r="C54" t="s">
-        <v>251</v>
+        <v>446</v>
       </c>
       <c r="D54" t="s">
-        <v>446</v>
+        <v>641</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3490,13 +4270,13 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>252</v>
       </c>
       <c r="C55" t="s">
-        <v>252</v>
+        <v>447</v>
       </c>
       <c r="D55" t="s">
-        <v>447</v>
+        <v>642</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3504,13 +4284,13 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>253</v>
       </c>
       <c r="C56" t="s">
-        <v>253</v>
+        <v>448</v>
       </c>
       <c r="D56" t="s">
-        <v>448</v>
+        <v>643</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3518,13 +4298,13 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>254</v>
       </c>
       <c r="C57" t="s">
-        <v>254</v>
+        <v>449</v>
       </c>
       <c r="D57" t="s">
-        <v>449</v>
+        <v>644</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3532,13 +4312,13 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>255</v>
       </c>
       <c r="C58" t="s">
-        <v>255</v>
+        <v>450</v>
       </c>
       <c r="D58" t="s">
-        <v>450</v>
+        <v>645</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3546,13 +4326,13 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>256</v>
       </c>
       <c r="C59" t="s">
-        <v>256</v>
+        <v>451</v>
       </c>
       <c r="D59" t="s">
-        <v>451</v>
+        <v>646</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3560,13 +4340,13 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>257</v>
       </c>
       <c r="C60" t="s">
-        <v>257</v>
+        <v>452</v>
       </c>
       <c r="D60" t="s">
-        <v>452</v>
+        <v>647</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3574,13 +4354,13 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>258</v>
       </c>
       <c r="C61" t="s">
-        <v>258</v>
+        <v>453</v>
       </c>
       <c r="D61" t="s">
-        <v>453</v>
+        <v>648</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3588,13 +4368,13 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>259</v>
       </c>
       <c r="C62" t="s">
-        <v>259</v>
+        <v>454</v>
       </c>
       <c r="D62" t="s">
-        <v>454</v>
+        <v>649</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3602,13 +4382,13 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>260</v>
       </c>
       <c r="C63" t="s">
-        <v>260</v>
+        <v>455</v>
       </c>
       <c r="D63" t="s">
-        <v>455</v>
+        <v>650</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3616,13 +4396,13 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>261</v>
       </c>
       <c r="C64" t="s">
-        <v>261</v>
+        <v>456</v>
       </c>
       <c r="D64" t="s">
-        <v>456</v>
+        <v>651</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3630,13 +4410,13 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>262</v>
       </c>
       <c r="C65" t="s">
-        <v>262</v>
+        <v>457</v>
       </c>
       <c r="D65" t="s">
-        <v>457</v>
+        <v>652</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3644,13 +4424,13 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>263</v>
       </c>
       <c r="C66" t="s">
-        <v>263</v>
+        <v>458</v>
       </c>
       <c r="D66" t="s">
-        <v>458</v>
+        <v>653</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3658,13 +4438,13 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>264</v>
       </c>
       <c r="C67" t="s">
-        <v>264</v>
+        <v>459</v>
       </c>
       <c r="D67" t="s">
-        <v>459</v>
+        <v>654</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3672,13 +4452,13 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>265</v>
       </c>
       <c r="C68" t="s">
-        <v>265</v>
+        <v>460</v>
       </c>
       <c r="D68" t="s">
-        <v>460</v>
+        <v>655</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3686,13 +4466,13 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>266</v>
       </c>
       <c r="C69" t="s">
-        <v>266</v>
+        <v>461</v>
       </c>
       <c r="D69" t="s">
-        <v>461</v>
+        <v>656</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3700,13 +4480,13 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>267</v>
       </c>
       <c r="C70" t="s">
-        <v>267</v>
+        <v>462</v>
       </c>
       <c r="D70" t="s">
-        <v>462</v>
+        <v>657</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3714,13 +4494,13 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>268</v>
       </c>
       <c r="C71" t="s">
-        <v>268</v>
+        <v>463</v>
       </c>
       <c r="D71" t="s">
-        <v>463</v>
+        <v>658</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3728,13 +4508,13 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>269</v>
       </c>
       <c r="C72" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="D72" t="s">
-        <v>464</v>
+        <v>659</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3742,13 +4522,13 @@
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>270</v>
       </c>
       <c r="C73" t="s">
-        <v>270</v>
+        <v>465</v>
       </c>
       <c r="D73" t="s">
-        <v>465</v>
+        <v>660</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3756,13 +4536,13 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>271</v>
       </c>
       <c r="C74" t="s">
-        <v>271</v>
+        <v>466</v>
       </c>
       <c r="D74" t="s">
-        <v>466</v>
+        <v>661</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3770,13 +4550,13 @@
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>272</v>
       </c>
       <c r="C75" t="s">
-        <v>272</v>
+        <v>467</v>
       </c>
       <c r="D75" t="s">
-        <v>467</v>
+        <v>662</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3784,13 +4564,13 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>273</v>
       </c>
       <c r="C76" t="s">
-        <v>273</v>
+        <v>468</v>
       </c>
       <c r="D76" t="s">
-        <v>468</v>
+        <v>663</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3798,13 +4578,13 @@
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>274</v>
       </c>
       <c r="C77" t="s">
-        <v>274</v>
+        <v>469</v>
       </c>
       <c r="D77" t="s">
-        <v>469</v>
+        <v>664</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3812,13 +4592,13 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>275</v>
       </c>
       <c r="C78" t="s">
-        <v>275</v>
+        <v>470</v>
       </c>
       <c r="D78" t="s">
-        <v>470</v>
+        <v>665</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3826,13 +4606,13 @@
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>276</v>
       </c>
       <c r="C79" t="s">
-        <v>276</v>
+        <v>471</v>
       </c>
       <c r="D79" t="s">
-        <v>471</v>
+        <v>666</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3840,13 +4620,13 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>277</v>
       </c>
       <c r="C80" t="s">
-        <v>277</v>
+        <v>472</v>
       </c>
       <c r="D80" t="s">
-        <v>472</v>
+        <v>667</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3854,13 +4634,13 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>278</v>
       </c>
       <c r="C81" t="s">
-        <v>278</v>
+        <v>473</v>
       </c>
       <c r="D81" t="s">
-        <v>473</v>
+        <v>668</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3868,13 +4648,13 @@
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>279</v>
       </c>
       <c r="C82" t="s">
-        <v>279</v>
+        <v>474</v>
       </c>
       <c r="D82" t="s">
-        <v>474</v>
+        <v>669</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3882,13 +4662,13 @@
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>280</v>
       </c>
       <c r="C83" t="s">
-        <v>280</v>
+        <v>475</v>
       </c>
       <c r="D83" t="s">
-        <v>475</v>
+        <v>670</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3896,13 +4676,13 @@
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>281</v>
       </c>
       <c r="C84" t="s">
-        <v>281</v>
+        <v>476</v>
       </c>
       <c r="D84" t="s">
-        <v>476</v>
+        <v>671</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3910,13 +4690,13 @@
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>282</v>
       </c>
       <c r="C85" t="s">
-        <v>282</v>
+        <v>477</v>
       </c>
       <c r="D85" t="s">
-        <v>477</v>
+        <v>672</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3924,13 +4704,13 @@
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>283</v>
       </c>
       <c r="C86" t="s">
-        <v>283</v>
+        <v>478</v>
       </c>
       <c r="D86" t="s">
-        <v>478</v>
+        <v>673</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3938,13 +4718,13 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>284</v>
       </c>
       <c r="C87" t="s">
-        <v>284</v>
+        <v>479</v>
       </c>
       <c r="D87" t="s">
-        <v>479</v>
+        <v>674</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3952,13 +4732,13 @@
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>90</v>
+        <v>285</v>
       </c>
       <c r="C88" t="s">
-        <v>285</v>
+        <v>480</v>
       </c>
       <c r="D88" t="s">
-        <v>480</v>
+        <v>675</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3966,13 +4746,13 @@
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>91</v>
+        <v>286</v>
       </c>
       <c r="C89" t="s">
-        <v>286</v>
+        <v>481</v>
       </c>
       <c r="D89" t="s">
-        <v>481</v>
+        <v>676</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3980,13 +4760,13 @@
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>92</v>
+        <v>287</v>
       </c>
       <c r="C90" t="s">
-        <v>287</v>
+        <v>482</v>
       </c>
       <c r="D90" t="s">
-        <v>482</v>
+        <v>677</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3994,13 +4774,13 @@
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>93</v>
+        <v>288</v>
       </c>
       <c r="C91" t="s">
-        <v>288</v>
+        <v>483</v>
       </c>
       <c r="D91" t="s">
-        <v>483</v>
+        <v>678</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -4008,13 +4788,13 @@
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>94</v>
+        <v>289</v>
       </c>
       <c r="C92" t="s">
-        <v>289</v>
+        <v>484</v>
       </c>
       <c r="D92" t="s">
-        <v>484</v>
+        <v>679</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -4022,13 +4802,13 @@
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>95</v>
+        <v>290</v>
       </c>
       <c r="C93" t="s">
-        <v>290</v>
+        <v>485</v>
       </c>
       <c r="D93" t="s">
-        <v>485</v>
+        <v>680</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -4036,13 +4816,13 @@
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>96</v>
+        <v>291</v>
       </c>
       <c r="C94" t="s">
-        <v>291</v>
+        <v>486</v>
       </c>
       <c r="D94" t="s">
-        <v>486</v>
+        <v>681</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -4050,13 +4830,13 @@
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>97</v>
+        <v>292</v>
       </c>
       <c r="C95" t="s">
-        <v>292</v>
+        <v>487</v>
       </c>
       <c r="D95" t="s">
-        <v>487</v>
+        <v>682</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -4064,13 +4844,13 @@
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>98</v>
+        <v>293</v>
       </c>
       <c r="C96" t="s">
-        <v>293</v>
+        <v>488</v>
       </c>
       <c r="D96" t="s">
-        <v>488</v>
+        <v>683</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -4078,13 +4858,13 @@
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>99</v>
+        <v>294</v>
       </c>
       <c r="C97" t="s">
-        <v>294</v>
+        <v>489</v>
       </c>
       <c r="D97" t="s">
-        <v>489</v>
+        <v>684</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -4092,13 +4872,13 @@
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>100</v>
+        <v>295</v>
       </c>
       <c r="C98" t="s">
-        <v>295</v>
+        <v>490</v>
       </c>
       <c r="D98" t="s">
-        <v>490</v>
+        <v>685</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -4106,13 +4886,13 @@
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>101</v>
+        <v>296</v>
       </c>
       <c r="C99" t="s">
-        <v>296</v>
+        <v>491</v>
       </c>
       <c r="D99" t="s">
-        <v>491</v>
+        <v>686</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -4120,13 +4900,13 @@
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>102</v>
+        <v>297</v>
       </c>
       <c r="C100" t="s">
-        <v>297</v>
+        <v>492</v>
       </c>
       <c r="D100" t="s">
-        <v>492</v>
+        <v>687</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -4134,13 +4914,13 @@
         <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>103</v>
+        <v>298</v>
       </c>
       <c r="C101" t="s">
-        <v>298</v>
+        <v>493</v>
       </c>
       <c r="D101" t="s">
-        <v>493</v>
+        <v>688</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -4148,13 +4928,13 @@
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>104</v>
+        <v>299</v>
       </c>
       <c r="C102" t="s">
-        <v>299</v>
+        <v>494</v>
       </c>
       <c r="D102" t="s">
-        <v>494</v>
+        <v>689</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4162,13 +4942,13 @@
         <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>105</v>
+        <v>300</v>
       </c>
       <c r="C103" t="s">
-        <v>300</v>
+        <v>495</v>
       </c>
       <c r="D103" t="s">
-        <v>495</v>
+        <v>690</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4176,13 +4956,13 @@
         <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>106</v>
+        <v>301</v>
       </c>
       <c r="C104" t="s">
-        <v>301</v>
+        <v>496</v>
       </c>
       <c r="D104" t="s">
-        <v>496</v>
+        <v>691</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -4190,13 +4970,13 @@
         <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>107</v>
+        <v>302</v>
       </c>
       <c r="C105" t="s">
-        <v>302</v>
+        <v>497</v>
       </c>
       <c r="D105" t="s">
-        <v>497</v>
+        <v>692</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -4204,13 +4984,13 @@
         <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>108</v>
+        <v>303</v>
       </c>
       <c r="C106" t="s">
-        <v>303</v>
+        <v>498</v>
       </c>
       <c r="D106" t="s">
-        <v>498</v>
+        <v>693</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -4218,13 +4998,13 @@
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>109</v>
+        <v>304</v>
       </c>
       <c r="C107" t="s">
-        <v>304</v>
+        <v>499</v>
       </c>
       <c r="D107" t="s">
-        <v>499</v>
+        <v>694</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4232,13 +5012,13 @@
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>110</v>
+        <v>305</v>
       </c>
       <c r="C108" t="s">
-        <v>305</v>
+        <v>500</v>
       </c>
       <c r="D108" t="s">
-        <v>500</v>
+        <v>695</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4246,13 +5026,13 @@
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>111</v>
+        <v>306</v>
       </c>
       <c r="C109" t="s">
-        <v>306</v>
+        <v>501</v>
       </c>
       <c r="D109" t="s">
-        <v>501</v>
+        <v>696</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -4260,13 +5040,13 @@
         <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>112</v>
+        <v>307</v>
       </c>
       <c r="C110" t="s">
-        <v>307</v>
+        <v>502</v>
       </c>
       <c r="D110" t="s">
-        <v>502</v>
+        <v>697</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -4274,13 +5054,13 @@
         <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>113</v>
+        <v>308</v>
       </c>
       <c r="C111" t="s">
-        <v>308</v>
+        <v>503</v>
       </c>
       <c r="D111" t="s">
-        <v>503</v>
+        <v>698</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4288,13 +5068,13 @@
         <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>114</v>
+        <v>309</v>
       </c>
       <c r="C112" t="s">
-        <v>309</v>
+        <v>504</v>
       </c>
       <c r="D112" t="s">
-        <v>504</v>
+        <v>699</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4302,13 +5082,13 @@
         <v>92</v>
       </c>
       <c r="B113" t="s">
-        <v>92</v>
+        <v>287</v>
       </c>
       <c r="C113" t="s">
-        <v>287</v>
+        <v>482</v>
       </c>
       <c r="D113" t="s">
-        <v>482</v>
+        <v>677</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -4316,13 +5096,13 @@
         <v>115</v>
       </c>
       <c r="B114" t="s">
-        <v>115</v>
+        <v>310</v>
       </c>
       <c r="C114" t="s">
-        <v>310</v>
+        <v>505</v>
       </c>
       <c r="D114" t="s">
-        <v>505</v>
+        <v>700</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4330,13 +5110,13 @@
         <v>116</v>
       </c>
       <c r="B115" t="s">
-        <v>116</v>
+        <v>311</v>
       </c>
       <c r="C115" t="s">
-        <v>311</v>
+        <v>506</v>
       </c>
       <c r="D115" t="s">
-        <v>506</v>
+        <v>701</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4344,13 +5124,13 @@
         <v>117</v>
       </c>
       <c r="B116" t="s">
-        <v>117</v>
+        <v>312</v>
       </c>
       <c r="C116" t="s">
-        <v>312</v>
+        <v>507</v>
       </c>
       <c r="D116" t="s">
-        <v>507</v>
+        <v>702</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4358,13 +5138,13 @@
         <v>118</v>
       </c>
       <c r="B117" t="s">
-        <v>118</v>
+        <v>313</v>
       </c>
       <c r="C117" t="s">
-        <v>313</v>
+        <v>508</v>
       </c>
       <c r="D117" t="s">
-        <v>508</v>
+        <v>703</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4372,13 +5152,13 @@
         <v>119</v>
       </c>
       <c r="B118" t="s">
-        <v>119</v>
+        <v>314</v>
       </c>
       <c r="C118" t="s">
-        <v>314</v>
+        <v>509</v>
       </c>
       <c r="D118" t="s">
-        <v>509</v>
+        <v>704</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4386,13 +5166,13 @@
         <v>120</v>
       </c>
       <c r="B119" t="s">
-        <v>120</v>
+        <v>315</v>
       </c>
       <c r="C119" t="s">
-        <v>315</v>
+        <v>510</v>
       </c>
       <c r="D119" t="s">
-        <v>510</v>
+        <v>705</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4400,13 +5180,13 @@
         <v>121</v>
       </c>
       <c r="B120" t="s">
-        <v>121</v>
+        <v>316</v>
       </c>
       <c r="C120" t="s">
-        <v>316</v>
+        <v>511</v>
       </c>
       <c r="D120" t="s">
-        <v>511</v>
+        <v>706</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4414,13 +5194,13 @@
         <v>122</v>
       </c>
       <c r="B121" t="s">
-        <v>122</v>
+        <v>317</v>
       </c>
       <c r="C121" t="s">
-        <v>317</v>
+        <v>512</v>
       </c>
       <c r="D121" t="s">
-        <v>512</v>
+        <v>707</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4428,13 +5208,13 @@
         <v>123</v>
       </c>
       <c r="B122" t="s">
-        <v>123</v>
+        <v>318</v>
       </c>
       <c r="C122" t="s">
-        <v>318</v>
+        <v>513</v>
       </c>
       <c r="D122" t="s">
-        <v>513</v>
+        <v>708</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4442,13 +5222,13 @@
         <v>124</v>
       </c>
       <c r="B123" t="s">
-        <v>124</v>
+        <v>319</v>
       </c>
       <c r="C123" t="s">
-        <v>319</v>
+        <v>514</v>
       </c>
       <c r="D123" t="s">
-        <v>514</v>
+        <v>709</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4456,13 +5236,13 @@
         <v>125</v>
       </c>
       <c r="B124" t="s">
-        <v>125</v>
+        <v>320</v>
       </c>
       <c r="C124" t="s">
-        <v>320</v>
+        <v>515</v>
       </c>
       <c r="D124" t="s">
-        <v>515</v>
+        <v>710</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -4470,13 +5250,13 @@
         <v>126</v>
       </c>
       <c r="B125" t="s">
-        <v>126</v>
+        <v>321</v>
       </c>
       <c r="C125" t="s">
-        <v>321</v>
+        <v>516</v>
       </c>
       <c r="D125" t="s">
-        <v>516</v>
+        <v>711</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -4484,13 +5264,13 @@
         <v>127</v>
       </c>
       <c r="B126" t="s">
-        <v>127</v>
+        <v>322</v>
       </c>
       <c r="C126" t="s">
-        <v>322</v>
+        <v>517</v>
       </c>
       <c r="D126" t="s">
-        <v>517</v>
+        <v>712</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4498,13 +5278,13 @@
         <v>92</v>
       </c>
       <c r="B127" t="s">
-        <v>92</v>
+        <v>287</v>
       </c>
       <c r="C127" t="s">
-        <v>287</v>
+        <v>482</v>
       </c>
       <c r="D127" t="s">
-        <v>482</v>
+        <v>677</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -4512,13 +5292,13 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>128</v>
+        <v>323</v>
       </c>
       <c r="C128" t="s">
-        <v>323</v>
+        <v>518</v>
       </c>
       <c r="D128" t="s">
-        <v>518</v>
+        <v>713</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4526,13 +5306,13 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>129</v>
+        <v>324</v>
       </c>
       <c r="C129" t="s">
-        <v>324</v>
+        <v>519</v>
       </c>
       <c r="D129" t="s">
-        <v>519</v>
+        <v>714</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4540,13 +5320,13 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>130</v>
+        <v>325</v>
       </c>
       <c r="C130" t="s">
-        <v>325</v>
+        <v>520</v>
       </c>
       <c r="D130" t="s">
-        <v>520</v>
+        <v>715</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4554,13 +5334,13 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>131</v>
+        <v>326</v>
       </c>
       <c r="C131" t="s">
-        <v>326</v>
+        <v>521</v>
       </c>
       <c r="D131" t="s">
-        <v>521</v>
+        <v>716</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4568,13 +5348,13 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>132</v>
+        <v>327</v>
       </c>
       <c r="C132" t="s">
-        <v>327</v>
+        <v>522</v>
       </c>
       <c r="D132" t="s">
-        <v>522</v>
+        <v>717</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -4582,13 +5362,13 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>133</v>
+        <v>328</v>
       </c>
       <c r="C133" t="s">
-        <v>328</v>
+        <v>523</v>
       </c>
       <c r="D133" t="s">
-        <v>523</v>
+        <v>718</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4596,13 +5376,13 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>134</v>
+        <v>329</v>
       </c>
       <c r="C134" t="s">
-        <v>329</v>
+        <v>524</v>
       </c>
       <c r="D134" t="s">
-        <v>524</v>
+        <v>719</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4610,13 +5390,13 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>135</v>
+        <v>330</v>
       </c>
       <c r="C135" t="s">
-        <v>330</v>
+        <v>525</v>
       </c>
       <c r="D135" t="s">
-        <v>525</v>
+        <v>720</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -4624,13 +5404,13 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>136</v>
+        <v>331</v>
       </c>
       <c r="C136" t="s">
-        <v>331</v>
+        <v>526</v>
       </c>
       <c r="D136" t="s">
-        <v>526</v>
+        <v>721</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4638,13 +5418,13 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>137</v>
+        <v>332</v>
       </c>
       <c r="C137" t="s">
-        <v>332</v>
+        <v>527</v>
       </c>
       <c r="D137" t="s">
-        <v>527</v>
+        <v>722</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -4652,13 +5432,13 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>138</v>
+        <v>333</v>
       </c>
       <c r="C138" t="s">
-        <v>333</v>
+        <v>528</v>
       </c>
       <c r="D138" t="s">
-        <v>528</v>
+        <v>723</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -4666,13 +5446,13 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>139</v>
+        <v>334</v>
       </c>
       <c r="C139" t="s">
-        <v>334</v>
+        <v>529</v>
       </c>
       <c r="D139" t="s">
-        <v>529</v>
+        <v>724</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -4680,13 +5460,13 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>140</v>
+        <v>335</v>
       </c>
       <c r="C140" t="s">
-        <v>335</v>
+        <v>530</v>
       </c>
       <c r="D140" t="s">
-        <v>530</v>
+        <v>725</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -4694,13 +5474,13 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>141</v>
+        <v>336</v>
       </c>
       <c r="C141" t="s">
-        <v>336</v>
+        <v>531</v>
       </c>
       <c r="D141" t="s">
-        <v>531</v>
+        <v>726</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -4708,13 +5488,13 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>142</v>
+        <v>337</v>
       </c>
       <c r="C142" t="s">
-        <v>337</v>
+        <v>532</v>
       </c>
       <c r="D142" t="s">
-        <v>532</v>
+        <v>727</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -4722,13 +5502,13 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>143</v>
+        <v>338</v>
       </c>
       <c r="C143" t="s">
-        <v>338</v>
+        <v>533</v>
       </c>
       <c r="D143" t="s">
-        <v>533</v>
+        <v>728</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -4736,13 +5516,13 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>144</v>
+        <v>339</v>
       </c>
       <c r="C144" t="s">
-        <v>339</v>
+        <v>534</v>
       </c>
       <c r="D144" t="s">
-        <v>534</v>
+        <v>729</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4750,13 +5530,13 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>145</v>
+        <v>340</v>
       </c>
       <c r="C145" t="s">
-        <v>340</v>
+        <v>535</v>
       </c>
       <c r="D145" t="s">
-        <v>535</v>
+        <v>730</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4764,13 +5544,13 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>146</v>
+        <v>341</v>
       </c>
       <c r="C146" t="s">
-        <v>341</v>
+        <v>536</v>
       </c>
       <c r="D146" t="s">
-        <v>536</v>
+        <v>731</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4778,13 +5558,13 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>147</v>
+        <v>342</v>
       </c>
       <c r="C147" t="s">
-        <v>342</v>
+        <v>537</v>
       </c>
       <c r="D147" t="s">
-        <v>537</v>
+        <v>732</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4792,13 +5572,13 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>148</v>
+        <v>343</v>
       </c>
       <c r="C148" t="s">
-        <v>343</v>
+        <v>538</v>
       </c>
       <c r="D148" t="s">
-        <v>538</v>
+        <v>733</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4806,13 +5586,13 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>149</v>
+        <v>344</v>
       </c>
       <c r="C149" t="s">
-        <v>344</v>
+        <v>539</v>
       </c>
       <c r="D149" t="s">
-        <v>539</v>
+        <v>734</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4820,13 +5600,13 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>150</v>
+        <v>345</v>
       </c>
       <c r="C150" t="s">
-        <v>345</v>
+        <v>540</v>
       </c>
       <c r="D150" t="s">
-        <v>540</v>
+        <v>735</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4834,13 +5614,13 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>151</v>
+        <v>346</v>
       </c>
       <c r="C151" t="s">
-        <v>346</v>
+        <v>541</v>
       </c>
       <c r="D151" t="s">
-        <v>541</v>
+        <v>736</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4848,13 +5628,13 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>152</v>
+        <v>347</v>
       </c>
       <c r="C152" t="s">
-        <v>347</v>
+        <v>542</v>
       </c>
       <c r="D152" t="s">
-        <v>542</v>
+        <v>737</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4862,13 +5642,13 @@
         <v>92</v>
       </c>
       <c r="B153" t="s">
-        <v>92</v>
+        <v>287</v>
       </c>
       <c r="C153" t="s">
-        <v>287</v>
+        <v>482</v>
       </c>
       <c r="D153" t="s">
-        <v>482</v>
+        <v>677</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4876,13 +5656,13 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>153</v>
+        <v>348</v>
       </c>
       <c r="C154" t="s">
-        <v>348</v>
+        <v>543</v>
       </c>
       <c r="D154" t="s">
-        <v>543</v>
+        <v>738</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4890,13 +5670,13 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>154</v>
+        <v>349</v>
       </c>
       <c r="C155" t="s">
-        <v>349</v>
+        <v>544</v>
       </c>
       <c r="D155" t="s">
-        <v>544</v>
+        <v>739</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4904,13 +5684,13 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>155</v>
+        <v>350</v>
       </c>
       <c r="C156" t="s">
-        <v>350</v>
+        <v>545</v>
       </c>
       <c r="D156" t="s">
-        <v>545</v>
+        <v>740</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4918,13 +5698,13 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>156</v>
+        <v>351</v>
       </c>
       <c r="C157" t="s">
-        <v>351</v>
+        <v>546</v>
       </c>
       <c r="D157" t="s">
-        <v>546</v>
+        <v>741</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4932,13 +5712,13 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>157</v>
+        <v>352</v>
       </c>
       <c r="C158" t="s">
-        <v>352</v>
+        <v>547</v>
       </c>
       <c r="D158" t="s">
-        <v>547</v>
+        <v>742</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4946,13 +5726,13 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>158</v>
+        <v>353</v>
       </c>
       <c r="C159" t="s">
-        <v>353</v>
+        <v>548</v>
       </c>
       <c r="D159" t="s">
-        <v>548</v>
+        <v>743</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4960,13 +5740,13 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>159</v>
+        <v>354</v>
       </c>
       <c r="C160" t="s">
-        <v>354</v>
+        <v>549</v>
       </c>
       <c r="D160" t="s">
-        <v>549</v>
+        <v>744</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4974,13 +5754,13 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>160</v>
+        <v>355</v>
       </c>
       <c r="C161" t="s">
-        <v>355</v>
+        <v>550</v>
       </c>
       <c r="D161" t="s">
-        <v>550</v>
+        <v>745</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4988,13 +5768,13 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>161</v>
+        <v>356</v>
       </c>
       <c r="C162" t="s">
-        <v>356</v>
+        <v>551</v>
       </c>
       <c r="D162" t="s">
-        <v>551</v>
+        <v>746</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -5002,13 +5782,13 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>162</v>
+        <v>357</v>
       </c>
       <c r="C163" t="s">
-        <v>357</v>
+        <v>552</v>
       </c>
       <c r="D163" t="s">
-        <v>552</v>
+        <v>747</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -5016,13 +5796,13 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>163</v>
+        <v>358</v>
       </c>
       <c r="C164" t="s">
-        <v>358</v>
+        <v>553</v>
       </c>
       <c r="D164" t="s">
-        <v>553</v>
+        <v>748</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -5030,13 +5810,13 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>164</v>
+        <v>359</v>
       </c>
       <c r="C165" t="s">
-        <v>359</v>
+        <v>554</v>
       </c>
       <c r="D165" t="s">
-        <v>554</v>
+        <v>749</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -5044,13 +5824,13 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>165</v>
+        <v>360</v>
       </c>
       <c r="C166" t="s">
-        <v>360</v>
+        <v>555</v>
       </c>
       <c r="D166" t="s">
-        <v>555</v>
+        <v>750</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -5058,13 +5838,13 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>166</v>
+        <v>361</v>
       </c>
       <c r="C167" t="s">
-        <v>361</v>
+        <v>556</v>
       </c>
       <c r="D167" t="s">
-        <v>556</v>
+        <v>751</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5072,13 +5852,13 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>167</v>
+        <v>362</v>
       </c>
       <c r="C168" t="s">
-        <v>362</v>
+        <v>557</v>
       </c>
       <c r="D168" t="s">
-        <v>557</v>
+        <v>752</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -5086,13 +5866,13 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>168</v>
+        <v>363</v>
       </c>
       <c r="C169" t="s">
-        <v>363</v>
+        <v>558</v>
       </c>
       <c r="D169" t="s">
-        <v>558</v>
+        <v>753</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -5100,13 +5880,13 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>169</v>
+        <v>364</v>
       </c>
       <c r="C170" t="s">
-        <v>364</v>
+        <v>559</v>
       </c>
       <c r="D170" t="s">
-        <v>559</v>
+        <v>754</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -5114,13 +5894,13 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>170</v>
+        <v>365</v>
       </c>
       <c r="C171" t="s">
-        <v>365</v>
+        <v>560</v>
       </c>
       <c r="D171" t="s">
-        <v>560</v>
+        <v>755</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -5128,13 +5908,13 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>171</v>
+        <v>366</v>
       </c>
       <c r="C172" t="s">
-        <v>366</v>
+        <v>561</v>
       </c>
       <c r="D172" t="s">
-        <v>561</v>
+        <v>756</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5142,13 +5922,13 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>172</v>
+        <v>367</v>
       </c>
       <c r="C173" t="s">
-        <v>367</v>
+        <v>562</v>
       </c>
       <c r="D173" t="s">
-        <v>562</v>
+        <v>757</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -5156,13 +5936,13 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>173</v>
+        <v>368</v>
       </c>
       <c r="C174" t="s">
-        <v>368</v>
+        <v>563</v>
       </c>
       <c r="D174" t="s">
-        <v>563</v>
+        <v>758</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5170,13 +5950,13 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>174</v>
+        <v>369</v>
       </c>
       <c r="C175" t="s">
-        <v>369</v>
+        <v>564</v>
       </c>
       <c r="D175" t="s">
-        <v>564</v>
+        <v>759</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -5184,13 +5964,13 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>175</v>
+        <v>370</v>
       </c>
       <c r="C176" t="s">
-        <v>370</v>
+        <v>565</v>
       </c>
       <c r="D176" t="s">
-        <v>565</v>
+        <v>760</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5198,13 +5978,13 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>176</v>
+        <v>371</v>
       </c>
       <c r="C177" t="s">
-        <v>371</v>
+        <v>566</v>
       </c>
       <c r="D177" t="s">
-        <v>566</v>
+        <v>761</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5212,13 +5992,13 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>177</v>
+        <v>372</v>
       </c>
       <c r="C178" t="s">
-        <v>372</v>
+        <v>567</v>
       </c>
       <c r="D178" t="s">
-        <v>567</v>
+        <v>762</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -5226,13 +6006,13 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>178</v>
+        <v>373</v>
       </c>
       <c r="C179" t="s">
-        <v>373</v>
+        <v>568</v>
       </c>
       <c r="D179" t="s">
-        <v>568</v>
+        <v>763</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -5240,13 +6020,13 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>179</v>
+        <v>374</v>
       </c>
       <c r="C180" t="s">
-        <v>374</v>
+        <v>569</v>
       </c>
       <c r="D180" t="s">
-        <v>569</v>
+        <v>764</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -5254,13 +6034,13 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>180</v>
+        <v>375</v>
       </c>
       <c r="C181" t="s">
-        <v>375</v>
+        <v>570</v>
       </c>
       <c r="D181" t="s">
-        <v>570</v>
+        <v>765</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -5268,13 +6048,13 @@
         <v>92</v>
       </c>
       <c r="B182" t="s">
-        <v>92</v>
+        <v>287</v>
       </c>
       <c r="C182" t="s">
-        <v>287</v>
+        <v>482</v>
       </c>
       <c r="D182" t="s">
-        <v>482</v>
+        <v>677</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -5282,13 +6062,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>181</v>
+        <v>376</v>
       </c>
       <c r="C183" t="s">
-        <v>376</v>
+        <v>571</v>
       </c>
       <c r="D183" t="s">
-        <v>571</v>
+        <v>766</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5296,13 +6076,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>182</v>
+        <v>377</v>
       </c>
       <c r="C184" t="s">
-        <v>377</v>
+        <v>572</v>
       </c>
       <c r="D184" t="s">
-        <v>572</v>
+        <v>767</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -5310,13 +6090,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>183</v>
+        <v>378</v>
       </c>
       <c r="C185" t="s">
-        <v>378</v>
+        <v>573</v>
       </c>
       <c r="D185" t="s">
-        <v>573</v>
+        <v>768</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -5324,13 +6104,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>184</v>
+        <v>379</v>
       </c>
       <c r="C186" t="s">
-        <v>379</v>
+        <v>574</v>
       </c>
       <c r="D186" t="s">
-        <v>574</v>
+        <v>769</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -5338,13 +6118,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>185</v>
+        <v>380</v>
       </c>
       <c r="C187" t="s">
-        <v>380</v>
+        <v>575</v>
       </c>
       <c r="D187" t="s">
-        <v>575</v>
+        <v>770</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -5352,13 +6132,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>186</v>
+        <v>381</v>
       </c>
       <c r="C188" t="s">
-        <v>381</v>
+        <v>576</v>
       </c>
       <c r="D188" t="s">
-        <v>576</v>
+        <v>771</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -5366,13 +6146,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>187</v>
+        <v>382</v>
       </c>
       <c r="C189" t="s">
-        <v>382</v>
+        <v>577</v>
       </c>
       <c r="D189" t="s">
-        <v>577</v>
+        <v>772</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -5380,13 +6160,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>188</v>
+        <v>383</v>
       </c>
       <c r="C190" t="s">
-        <v>383</v>
+        <v>578</v>
       </c>
       <c r="D190" t="s">
-        <v>578</v>
+        <v>773</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -5394,13 +6174,13 @@
         <v>92</v>
       </c>
       <c r="B191" t="s">
-        <v>92</v>
+        <v>287</v>
       </c>
       <c r="C191" t="s">
-        <v>287</v>
+        <v>482</v>
       </c>
       <c r="D191" t="s">
-        <v>482</v>
+        <v>677</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -5408,13 +6188,13 @@
         <v>189</v>
       </c>
       <c r="B192" t="s">
-        <v>189</v>
+        <v>384</v>
       </c>
       <c r="C192" t="s">
-        <v>384</v>
+        <v>579</v>
       </c>
       <c r="D192" t="s">
-        <v>579</v>
+        <v>774</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -5422,13 +6202,13 @@
         <v>190</v>
       </c>
       <c r="B193" t="s">
-        <v>190</v>
+        <v>385</v>
       </c>
       <c r="C193" t="s">
-        <v>385</v>
+        <v>580</v>
       </c>
       <c r="D193" t="s">
-        <v>580</v>
+        <v>775</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -5436,13 +6216,13 @@
         <v>191</v>
       </c>
       <c r="B194" t="s">
-        <v>191</v>
+        <v>386</v>
       </c>
       <c r="C194" t="s">
-        <v>386</v>
+        <v>581</v>
       </c>
       <c r="D194" t="s">
-        <v>581</v>
+        <v>776</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -5450,13 +6230,13 @@
         <v>192</v>
       </c>
       <c r="B195" t="s">
-        <v>192</v>
+        <v>387</v>
       </c>
       <c r="C195" t="s">
-        <v>387</v>
+        <v>582</v>
       </c>
       <c r="D195" t="s">
-        <v>582</v>
+        <v>777</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -5464,13 +6244,13 @@
         <v>193</v>
       </c>
       <c r="B196" t="s">
-        <v>193</v>
+        <v>388</v>
       </c>
       <c r="C196" t="s">
-        <v>388</v>
+        <v>583</v>
       </c>
       <c r="D196" t="s">
-        <v>583</v>
+        <v>778</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -5478,13 +6258,13 @@
         <v>194</v>
       </c>
       <c r="B197" t="s">
-        <v>194</v>
+        <v>389</v>
       </c>
       <c r="C197" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D197" t="s">
-        <v>584</v>
+        <v>779</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -5492,13 +6272,13 @@
         <v>195</v>
       </c>
       <c r="B198" t="s">
-        <v>195</v>
+        <v>390</v>
       </c>
       <c r="C198" t="s">
-        <v>390</v>
+        <v>585</v>
       </c>
       <c r="D198" t="s">
-        <v>585</v>
+        <v>780</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -5506,13 +6286,13 @@
         <v>196</v>
       </c>
       <c r="B199" t="s">
-        <v>196</v>
+        <v>391</v>
       </c>
       <c r="C199" t="s">
-        <v>391</v>
+        <v>586</v>
       </c>
       <c r="D199" t="s">
-        <v>586</v>
+        <v>781</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -5520,13 +6300,13 @@
         <v>197</v>
       </c>
       <c r="B200" t="s">
-        <v>197</v>
+        <v>392</v>
       </c>
       <c r="C200" t="s">
-        <v>392</v>
+        <v>587</v>
       </c>
       <c r="D200" t="s">
-        <v>587</v>
+        <v>782</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -5534,13 +6314,13 @@
         <v>198</v>
       </c>
       <c r="B201" t="s">
-        <v>198</v>
+        <v>393</v>
       </c>
       <c r="C201" t="s">
-        <v>393</v>
+        <v>588</v>
       </c>
       <c r="D201" t="s">
-        <v>588</v>
+        <v>783</v>
       </c>
     </row>
   </sheetData>
